--- a/STS IR Bot Performer/Data/CountyMapping.xlsx
+++ b/STS IR Bot Performer/Data/CountyMapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://taxwarellc-my.sharepoint.com/personal/nahuel_delacruz_sovos_com/Documents/Desktop/Nahuel/Projects/STS Review/STS Review Bot Performer/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://taxwarellc-my.sharepoint.com/personal/nahuel_delacruz_sovos_com/Documents/Desktop/Nahuel/Projects/STS Internal Review bot/STS IR Bot Performer/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7F486F02-D2CB-4EB8-A587-BE54DF2A8ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36378443-8A5C-4E24-8D8F-E77D7BE1D457}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{7F486F02-D2CB-4EB8-A587-BE54DF2A8ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79F5D8F8-2A2F-40BC-98FE-B8C5A27D047C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$178</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="254">
   <si>
     <t>County</t>
   </si>
@@ -781,6 +781,15 @@
   </si>
   <si>
     <t>Component\Logic\Pdf\Extract\Pdf - Extract - Extract line 14 and 11 for Wv.xaml</t>
+  </si>
+  <si>
+    <t>NavigateToTab</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>PageName</t>
   </si>
 </sst>
 </file>
@@ -855,6 +864,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1120,22 +1133,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E178"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" customWidth="1"/>
-    <col min="3" max="3" width="109.28515625" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" customWidth="1"/>
+    <col min="3" max="3" width="82" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1186,7 +1199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1203,7 +1216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1253,8 +1266,11 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1270,8 +1286,14 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1339,7 +1361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1356,7 +1378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +1395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -4162,7 +4184,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E160" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E178" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/STS IR Bot Performer/Data/CountyMapping.xlsx
+++ b/STS IR Bot Performer/Data/CountyMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://taxwarellc-my.sharepoint.com/personal/nahuel_delacruz_sovos_com/Documents/Desktop/Nahuel/Projects/STS Internal Review bot/STS IR Bot Performer/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{7F486F02-D2CB-4EB8-A587-BE54DF2A8ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79F5D8F8-2A2F-40BC-98FE-B8C5A27D047C}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{7F486F02-D2CB-4EB8-A587-BE54DF2A8ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC886D7-4686-4163-B227-6DDF9E4923E9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$178</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1133,10 +1144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1182,7 +1194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +1211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +1228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1250,7 +1262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1293,7 +1305,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1327,7 +1339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,7 +1356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1361,7 +1373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1378,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1395,7 +1407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1446,7 +1458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1463,7 +1475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,7 +1492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1514,7 +1526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1531,7 +1543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,7 +1560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1565,7 +1577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1582,7 +1594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1599,7 +1611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1616,7 +1628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1633,7 +1645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1650,7 +1662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1667,7 +1679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1701,7 +1713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1735,7 +1747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1752,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1769,7 +1781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1786,7 +1798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1803,7 +1815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1820,7 +1832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1837,7 +1849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -1854,7 +1866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -1871,7 +1883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1888,7 +1900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -1905,7 +1917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -1922,7 +1934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -1939,7 +1951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -1956,7 +1968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -1973,7 +1985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -1990,7 +2002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -2024,7 +2036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
@@ -2041,7 +2053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -2058,7 +2070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
@@ -2075,7 +2087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
@@ -2092,7 +2104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -2126,7 +2138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
@@ -2160,7 +2172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
@@ -2177,7 +2189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -2194,7 +2206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
@@ -2211,7 +2223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -2228,7 +2240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -2245,7 +2257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
@@ -2262,7 +2274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
@@ -2279,7 +2291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
@@ -2296,7 +2308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
@@ -2330,7 +2342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -2347,7 +2359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -2364,7 +2376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -2381,7 +2393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -2398,7 +2410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -2415,7 +2427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -2449,7 +2461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -2466,7 +2478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -2500,7 +2512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -2517,7 +2529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -2534,7 +2546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -2551,7 +2563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -2585,7 +2597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -2602,7 +2614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -2619,7 +2631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -2636,7 +2648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -2653,7 +2665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -2670,7 +2682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -2687,7 +2699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -2704,7 +2716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -2721,7 +2733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -2738,7 +2750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -2755,7 +2767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -2772,7 +2784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -2789,7 +2801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -2823,7 +2835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -2840,7 +2852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
@@ -2874,7 +2886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>106</v>
       </c>
@@ -2891,7 +2903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>107</v>
       </c>
@@ -2908,7 +2920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>108</v>
       </c>
@@ -2925,7 +2937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -2942,7 +2954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -2959,7 +2971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
@@ -2976,7 +2988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
@@ -2993,7 +3005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>113</v>
       </c>
@@ -3010,7 +3022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>114</v>
       </c>
@@ -3027,7 +3039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>115</v>
       </c>
@@ -3044,7 +3056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
@@ -3061,7 +3073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>117</v>
       </c>
@@ -3078,7 +3090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>118</v>
       </c>
@@ -3095,7 +3107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
@@ -3112,7 +3124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
@@ -3129,7 +3141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
@@ -3146,7 +3158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
@@ -3163,7 +3175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>122</v>
       </c>
@@ -3180,7 +3192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>123</v>
       </c>
@@ -3197,7 +3209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>124</v>
       </c>
@@ -3214,7 +3226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>125</v>
       </c>
@@ -3231,7 +3243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -3248,7 +3260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -3265,7 +3277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -3282,7 +3294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -3299,7 +3311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -3316,7 +3328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -3333,7 +3345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -3350,7 +3362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -3367,7 +3379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -3384,7 +3396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -3401,7 +3413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -3418,7 +3430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -3435,7 +3447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -3452,7 +3464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -3469,7 +3481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -3486,7 +3498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -3503,7 +3515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
@@ -3520,7 +3532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -3537,7 +3549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -3554,7 +3566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -3571,7 +3583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -3588,7 +3600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -3605,7 +3617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -3622,7 +3634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -3639,7 +3651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -3656,7 +3668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -3673,7 +3685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -3690,7 +3702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
@@ -3724,7 +3736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -3741,7 +3753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -3758,7 +3770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -3775,7 +3787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -3792,7 +3804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -3809,7 +3821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -3826,7 +3838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -3843,7 +3855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
@@ -3860,7 +3872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -3877,7 +3889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -3894,7 +3906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -3911,7 +3923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -3928,7 +3940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>167</v>
       </c>
@@ -3945,7 +3957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>168</v>
       </c>
@@ -3962,7 +3974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -3979,7 +3991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -3996,7 +4008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -4013,7 +4025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -4030,7 +4042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -4047,7 +4059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -4064,7 +4076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -4081,7 +4093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -4098,7 +4110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -4115,7 +4127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -4132,7 +4144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>181</v>
       </c>
@@ -4149,7 +4161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
@@ -4166,7 +4178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
@@ -4184,7 +4196,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E178" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E178" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="AR ET-1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/STS IR Bot Performer/Data/CountyMapping.xlsx
+++ b/STS IR Bot Performer/Data/CountyMapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://taxwarellc-my.sharepoint.com/personal/nahuel_delacruz_sovos_com/Documents/Desktop/Nahuel/Projects/STS Internal Review bot/STS IR Bot Performer/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{7F486F02-D2CB-4EB8-A587-BE54DF2A8ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC886D7-4686-4163-B227-6DDF9E4923E9}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{7F486F02-D2CB-4EB8-A587-BE54DF2A8ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6220341E-0EB8-413D-BB36-A82148867012}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,152 +1781,152 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B45" t="s">
         <v>220</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C45" t="s">
         <v>191</v>
       </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C40" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" t="s">
-        <v>241</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" t="s">
-        <v>242</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" t="s">
-        <v>224</v>
-      </c>
-      <c r="C43" t="s">
-        <v>242</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" t="s">
-        <v>242</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" t="s">
-        <v>243</v>
-      </c>
       <c r="D45" t="s">
         <v>6</v>
       </c>
@@ -1934,15 +1934,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
         <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -1951,15 +1951,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
         <v>224</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -1968,15 +1968,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
         <v>224</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -1985,26 +1985,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B49" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" t="s">
-        <v>243</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="B50" t="s">
         <v>224</v>
@@ -2019,15 +2019,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>224</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
@@ -2036,15 +2036,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
         <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -2053,15 +2053,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
         <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
@@ -2070,15 +2070,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
         <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
@@ -2087,15 +2087,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
         <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -2104,15 +2104,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
         <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -2121,15 +2121,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
         <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -2138,9 +2138,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>224</v>
@@ -2155,15 +2155,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>224</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -2172,15 +2172,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>156</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -2189,15 +2189,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -2206,15 +2206,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
         <v>224</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -2223,9 +2223,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
         <v>224</v>
@@ -2240,15 +2240,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
         <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -2257,9 +2257,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
         <v>224</v>
@@ -2274,9 +2274,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
         <v>224</v>
@@ -2291,15 +2291,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
         <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -2308,15 +2308,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
         <v>224</v>
       </c>
       <c r="C68" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
@@ -2325,15 +2325,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
         <v>224</v>
       </c>
       <c r="C69" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
@@ -2342,9 +2342,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
         <v>224</v>
@@ -2359,9 +2359,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
         <v>224</v>
@@ -2376,15 +2376,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
         <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D72" t="s">
         <v>6</v>
@@ -2393,60 +2393,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" t="s">
+        <v>243</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" t="s">
+        <v>243</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B73" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" t="s">
-        <v>244</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C74" t="s">
-        <v>244</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" t="s">
-        <v>224</v>
-      </c>
-      <c r="C75" t="s">
-        <v>244</v>
-      </c>
-      <c r="D75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="B76" t="s">
         <v>224</v>
@@ -2461,152 +2461,152 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
         <v>224</v>
       </c>
       <c r="C77" t="s">
+        <v>243</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" t="s">
+        <v>243</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" t="s">
         <v>244</v>
       </c>
-      <c r="D77" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" t="s">
-        <v>224</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" t="s">
+        <v>224</v>
+      </c>
+      <c r="C81" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" t="s">
         <v>245</v>
       </c>
-      <c r="D78" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" t="s">
-        <v>224</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" t="s">
+        <v>244</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" t="s">
         <v>245</v>
       </c>
-      <c r="D79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" t="s">
-        <v>224</v>
-      </c>
-      <c r="C80" t="s">
-        <v>245</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" t="s">
-        <v>224</v>
-      </c>
-      <c r="C81" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" t="s">
-        <v>224</v>
-      </c>
-      <c r="C82" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" t="s">
-        <v>224</v>
-      </c>
-      <c r="C84" t="s">
-        <v>246</v>
-      </c>
-      <c r="D84" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" t="s">
-        <v>224</v>
-      </c>
-      <c r="C85" t="s">
-        <v>194</v>
-      </c>
       <c r="D85" t="s">
         <v>6</v>
       </c>
@@ -2614,15 +2614,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
         <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
@@ -2631,15 +2631,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s">
         <v>224</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
@@ -3719,7 +3719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
@@ -3753,15 +3753,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>156</v>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B153" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C153" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D153" t="s">
         <v>6</v>
@@ -3770,15 +3770,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C154" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="D154" t="s">
         <v>6</v>
@@ -4199,9 +4199,63 @@
   <autoFilter ref="A1:E178" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="AR ET-1"/>
+        <filter val="CO Arvada ST"/>
+        <filter val="CO Aspen"/>
+        <filter val="CO Aurora"/>
+        <filter val="CO Avon"/>
+        <filter val="CO Black Hawk"/>
+        <filter val="CO Boulder"/>
+        <filter val="CO Breckenridge"/>
+        <filter val="CO Brighton ST"/>
+        <filter val="CO Broomfield"/>
+        <filter val="CO Carbondale"/>
+        <filter val="CO Castle Pines"/>
+        <filter val="CO Castle Rock ST"/>
+        <filter val="CO Centennial"/>
+        <filter val="CO Central ST"/>
+        <filter val="CO Cherry Hills"/>
+        <filter val="CO Colorado Springs"/>
+        <filter val="CO Commerce"/>
+        <filter val="CO Cortez"/>
+        <filter val="CO Craig"/>
+        <filter val="CO Crested Butte"/>
+        <filter val="CO Dacono"/>
+        <filter val="CO Delta ST"/>
+        <filter val="CO Denver 100"/>
+        <filter val="CO DR-0100 XML"/>
+        <filter val="CO DR-0173"/>
+        <filter val="CO Durango"/>
+        <filter val="CO Edgewater"/>
+        <filter val="CO Englewood"/>
+        <filter val="CO Evans"/>
+        <filter val="CO Federal HGTS ST"/>
+        <filter val="CO Fort Collins"/>
+        <filter val="CO Frisco"/>
+        <filter val="CO Glendale"/>
+        <filter val="CO Glenwood Spr ST"/>
+        <filter val="CO Golden"/>
+        <filter val="CO Grand Junction"/>
+        <filter val="CO Greeley"/>
+        <filter val="CO Greenwood Village"/>
+        <filter val="CO La Junta"/>
+        <filter val="CO Lafayette"/>
+        <filter val="CO Lakewood"/>
+        <filter val="CO Littleton"/>
+        <filter val="CO Longmont ST"/>
+        <filter val="CO Louisville ST"/>
+        <filter val="CO Loveland"/>
+        <filter val="CO Montrose"/>
+        <filter val="CO Parket ST"/>
+        <filter val="CO Pueblo"/>
+        <filter val="CO Thornton ST"/>
+        <filter val="CO Westminster ST"/>
+        <filter val="CO Wheat Ridge"/>
+        <filter val="CO Woodland"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:E154">
+      <sortCondition ref="A1:A178"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
